--- a/FinalResults/PrimeNumber.xlsx
+++ b/FinalResults/PrimeNumber.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\Results\PrimeNumber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\FinalResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C2EE3E-7D70-4AB0-B71A-7931F1E61EC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F138BACE-86CD-4333-992E-1DA5FDAD9B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>AssemblyScript</t>
   </si>
@@ -38,11 +38,17 @@
   <si>
     <t>Rust</t>
   </si>
+  <si>
+    <t>Iteration</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,7 +80,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,452 +361,546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="18.28515625" customWidth="1"/>
+    <col min="2" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>4.0181294730000001</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="1">
         <v>1.8187000000000001E-5</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>2.0114000000000001E-5</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="1">
         <v>4.6981301780000004</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>3.96909468</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="1">
         <v>2.3269999999999999E-6</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="1">
         <v>2.142E-6</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="1">
         <v>4.7288994510000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>4.0357665020000004</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="1">
         <v>1.469E-6</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="1">
         <v>1.341E-6</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="1">
         <v>4.680541979</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
         <v>4.0045995599999999</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="1">
         <v>1.2669999999999999E-6</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="1">
         <v>1.3400000000000001E-6</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="1">
         <v>4.6815588049999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>4.0821402280000001</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="1">
         <v>4.1479999999999999E-6</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="1">
         <v>5.4970000000000001E-6</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="1">
         <v>4.7636777449999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>3.9633480520000002</v>
       </c>
-      <c r="B7">
+      <c r="C7" s="1">
         <v>6.1059999999999996E-6</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="1">
         <v>4.6970000000000001E-6</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="1">
         <v>4.7326775090000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
         <v>4.0604564649999997</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="1">
         <v>1.0750000000000001E-6</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="1">
         <v>1.1030000000000001E-6</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="1">
         <v>4.7736043889999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
         <v>4.0702059090000002</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>9.8899999999999998E-7</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="1">
         <v>1.001E-6</v>
       </c>
-      <c r="D9">
+      <c r="E9" s="1">
         <v>4.774866812</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>3.9790178140000001</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="1">
         <v>1.3880000000000001E-6</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="1">
         <v>1.6610000000000001E-6</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="1">
         <v>4.8349014339999998</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
         <v>4.0773064640000003</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>8.7300000000000005E-7</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>8.2399999999999997E-7</v>
       </c>
-      <c r="D11">
+      <c r="E11" s="1">
         <v>4.84940602</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
         <v>4.0898421049999998</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>6.5300000000000004E-7</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>6.0200000000000002E-7</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="1">
         <v>4.8028876010000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
         <v>4.0619707319999998</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>6.5499999999999998E-7</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>6.6000000000000003E-7</v>
       </c>
-      <c r="D13">
+      <c r="E13" s="1">
         <v>4.809481474</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
         <v>4.045422104</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C14" s="1">
         <v>6.6599999999999996E-7</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>6.2799999999999996E-7</v>
       </c>
-      <c r="D14">
+      <c r="E14" s="1">
         <v>4.7707226240000002</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
         <v>4.0725154679999997</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="1">
         <v>5.68E-7</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>5.6899999999999997E-7</v>
       </c>
-      <c r="D15">
+      <c r="E15" s="1">
         <v>4.870983131</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
         <v>4.039939843</v>
       </c>
-      <c r="B16" s="1">
+      <c r="C16" s="1">
         <v>5.5300000000000004E-7</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>5.75E-7</v>
       </c>
-      <c r="D16">
+      <c r="E16" s="1">
         <v>4.8285258229999997</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
         <v>4.0947154589999997</v>
       </c>
-      <c r="B17" s="1">
+      <c r="C17" s="1">
         <v>5.6300000000000005E-7</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>5.2699999999999999E-7</v>
       </c>
-      <c r="D17">
+      <c r="E17" s="1">
         <v>4.796814876</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
         <v>4.0742915850000001</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C18" s="1">
         <v>5.1799999999999995E-7</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>5.1600000000000001E-7</v>
       </c>
-      <c r="D18">
+      <c r="E18" s="1">
         <v>4.8027796040000004</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
         <v>4.0260532180000004</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C19" s="1">
         <v>5.8800000000000002E-7</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>5.6400000000000002E-7</v>
       </c>
-      <c r="D19">
+      <c r="E19" s="1">
         <v>4.7573212099999997</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
         <v>4.0827987419999996</v>
       </c>
-      <c r="B20" s="1">
+      <c r="C20" s="1">
         <v>5.2E-7</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>5.68E-7</v>
       </c>
-      <c r="D20">
+      <c r="E20" s="1">
         <v>4.9367501320000002</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
         <v>4.0939965579999997</v>
       </c>
-      <c r="B21" s="1">
+      <c r="C21" s="1">
         <v>5.6100000000000001E-7</v>
       </c>
-      <c r="C21">
+      <c r="D21" s="1">
         <v>1.829E-6</v>
       </c>
-      <c r="D21">
+      <c r="E21" s="1">
         <v>5.032994306</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
         <v>4.1451769169999997</v>
       </c>
-      <c r="B22" s="1">
+      <c r="C22" s="1">
         <v>5.2E-7</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>4.8699999999999995E-7</v>
       </c>
-      <c r="D22">
+      <c r="E22" s="1">
         <v>5.4318094849999996</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
         <v>4.2402454919999997</v>
       </c>
-      <c r="B23" s="1">
+      <c r="C23" s="1">
         <v>4.7300000000000001E-7</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>5.0200000000000002E-7</v>
       </c>
-      <c r="D23">
+      <c r="E23" s="1">
         <v>5.5693481340000002</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
         <v>4.3326981450000002</v>
       </c>
-      <c r="B24" s="1">
+      <c r="C24" s="1">
         <v>5.2399999999999998E-7</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>4.9399999999999995E-7</v>
       </c>
-      <c r="D24">
+      <c r="E24" s="1">
         <v>5.4655592679999998</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
         <v>4.5012552220000002</v>
       </c>
-      <c r="B25" s="1">
+      <c r="C25" s="1">
         <v>5.0999999999999999E-7</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>5.1500000000000005E-7</v>
       </c>
-      <c r="D25">
+      <c r="E25" s="1">
         <v>5.4310866730000003</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
         <v>4.6555083650000002</v>
       </c>
-      <c r="B26" s="1">
+      <c r="C26" s="1">
         <v>4.7E-7</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>6.0999999999999998E-7</v>
       </c>
-      <c r="D26">
+      <c r="E26" s="1">
         <v>5.427178563</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
         <v>4.7274218059999997</v>
       </c>
-      <c r="B27" s="1">
+      <c r="C27" s="1">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>4.3599999999999999E-7</v>
       </c>
-      <c r="D27">
+      <c r="E27" s="1">
         <v>5.4177502180000001</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
         <v>4.8266867659999999</v>
       </c>
-      <c r="B28" s="1">
+      <c r="C28" s="1">
         <v>4.7399999999999998E-7</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>4.0699999999999998E-7</v>
       </c>
-      <c r="D28">
+      <c r="E28" s="1">
         <v>6.1229824290000003</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
         <v>4.6781632699999998</v>
       </c>
-      <c r="B29" s="1">
+      <c r="C29" s="1">
         <v>4.4700000000000002E-7</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>4.58E-7</v>
       </c>
-      <c r="D29">
+      <c r="E29" s="1">
         <v>5.4945477739999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
         <v>4.4043405230000001</v>
       </c>
-      <c r="B30" s="1">
+      <c r="C30" s="1">
         <v>4.5299999999999999E-7</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>4.6800000000000001E-7</v>
       </c>
-      <c r="D30">
+      <c r="E30" s="1">
         <v>5.169218527</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
         <v>4.2473194410000001</v>
       </c>
-      <c r="B31" s="1">
+      <c r="C31" s="1">
         <v>4.2599999999999998E-7</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>4.9200000000000001E-7</v>
       </c>
-      <c r="D31">
+      <c r="E31" s="1">
         <v>4.8633816090000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>